--- a/src/predicciones/xgboost/producto_259.xlsx
+++ b/src/predicciones/xgboost/producto_259.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,961 +386,1318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44935</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0.9113585948944092</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44947</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0.9818534851074219</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44948</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>1.31275749206543</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44951</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0.9553074836730957</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44955</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0.9886804819107056</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44956</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>1.144959568977356</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44959</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>1.042502880096436</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44967</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>1.215367555618286</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44979</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1.06252646446228</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44982</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>0.9419854283332825</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44986</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>1.102573275566101</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44994</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>1.345090866088867</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44995</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>1.54287314414978</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44996</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>0.9624397754669189</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44998</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>1.42986798286438</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>2</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44999</v>
       </c>
       <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
         <v>1.465627908706665</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>45006</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>1.257925510406494</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>45007</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>1.204846501350403</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>45009</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>1.216688990592957</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>2</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>45010</v>
       </c>
       <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
         <v>1.664186120033264</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>45011</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>1.220379233360291</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>45013</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>1.363893151283264</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45018</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>1.170943260192871</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>2</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45020</v>
       </c>
       <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
         <v>1.291187763214111</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45025</v>
       </c>
       <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>1.261744856834412</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>2</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45035</v>
       </c>
       <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>1.479957461357117</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>2</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45048</v>
       </c>
       <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
         <v>1.273446559906006</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1</v>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45055</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>1.897907733917236</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1</v>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45057</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>1.063707947731018</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1</v>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45060</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>1.183674454689026</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1</v>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45061</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>1.139894962310791</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1</v>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45066</v>
       </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>1.294676542282104</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1</v>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45068</v>
       </c>
       <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>1.590489864349365</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1</v>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45070</v>
       </c>
       <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
         <v>1.34580659866333</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1</v>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45072</v>
       </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>1.306095957756042</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>2</v>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45079</v>
       </c>
       <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
         <v>1.33191978931427</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1</v>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45084</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>1.69665515422821</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>1</v>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45086</v>
       </c>
       <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
         <v>1.814274072647095</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1</v>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45091</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>1.936714172363281</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1</v>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45092</v>
       </c>
       <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>1.42470920085907</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>1</v>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45095</v>
       </c>
       <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>1.09210741519928</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1</v>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45096</v>
       </c>
       <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>0.9794889688491821</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45099</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>1.113549709320068</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1</v>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45105</v>
       </c>
       <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>1.041911125183105</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1</v>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45107</v>
       </c>
       <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>1.846646785736084</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1</v>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45109</v>
       </c>
       <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>1.524403691291809</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>2</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45121</v>
       </c>
       <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
         <v>1.332704544067383</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>1</v>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45125</v>
       </c>
       <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
         <v>1.141555309295654</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45126</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>1.174678802490234</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>1</v>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45127</v>
       </c>
       <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>1.34929096698761</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>1</v>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45130</v>
       </c>
       <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
         <v>1.097532749176025</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1</v>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45133</v>
       </c>
       <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
         <v>0.9465156197547913</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>1</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45135</v>
       </c>
       <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>1.217232465744019</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>1</v>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45145</v>
       </c>
       <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
         <v>1.614612221717834</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>2</v>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45147</v>
       </c>
       <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
         <v>1.168023824691772</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>1</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45149</v>
       </c>
       <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
         <v>1.576798915863037</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>2</v>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45150</v>
       </c>
       <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
         <v>1.11517596244812</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>1</v>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45166</v>
       </c>
       <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
         <v>1.876303195953369</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>1</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45167</v>
       </c>
       <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
         <v>1.264605283737183</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>1</v>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45171</v>
       </c>
       <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
         <v>0.9735453128814697</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45175</v>
       </c>
       <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>1.203416228294373</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>1</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45176</v>
       </c>
       <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>1.476869940757751</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>2</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45180</v>
       </c>
       <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
         <v>1.145150184631348</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>1</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45182</v>
       </c>
       <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
         <v>1.123411059379578</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>1</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45184</v>
       </c>
       <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
         <v>0.9324422478675842</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>1</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45193</v>
       </c>
       <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
         <v>1.035142779350281</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>1</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45196</v>
       </c>
       <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
         <v>0.9472624659538269</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>1</v>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45199</v>
       </c>
       <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
         <v>1.222055554389954</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>1</v>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45205</v>
       </c>
       <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
         <v>0.9378948211669922</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>1</v>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45210</v>
       </c>
       <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
         <v>1.022980809211731</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>1</v>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45211</v>
       </c>
       <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>1.432984232902527</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>1</v>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45212</v>
       </c>
       <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
         <v>1.42632794380188</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>2</v>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45214</v>
       </c>
       <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
         <v>1.464609146118164</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>2</v>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45216</v>
       </c>
       <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
         <v>1.56438136100769</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1</v>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45217</v>
       </c>
       <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>1.837991714477539</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>1</v>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45222</v>
       </c>
       <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
         <v>1.616334319114685</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>1</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45238</v>
       </c>
       <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
         <v>1.843222618103027</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>2</v>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45242</v>
       </c>
       <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
         <v>1.284628629684448</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>2</v>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45243</v>
       </c>
       <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
         <v>1.289181351661682</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>1</v>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45250</v>
       </c>
       <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
         <v>1.857519149780273</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>2</v>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45251</v>
       </c>
       <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
         <v>1.421117544174194</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>2</v>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45253</v>
       </c>
       <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
         <v>1.303992867469788</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>2</v>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45256</v>
       </c>
       <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
         <v>1.088513612747192</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>2</v>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45263</v>
       </c>
       <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
         <v>1.558889269828796</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <v>1</v>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45265</v>
       </c>
       <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
         <v>1.812421083450317</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>1</v>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45269</v>
       </c>
       <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
         <v>1.664405345916748</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>1</v>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45274</v>
       </c>
       <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
         <v>1.681730031967163</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>1</v>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45276</v>
       </c>
       <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
         <v>1.462607502937317</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>1</v>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45282</v>
       </c>
       <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
         <v>1.492840170860291</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>2</v>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45283</v>
       </c>
       <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
         <v>1.787619709968567</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>1</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45286</v>
       </c>
       <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
         <v>1.508995413780212</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>2</v>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45295</v>
       </c>
       <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
         <v>1.205646872520447</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>2</v>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45296</v>
       </c>
       <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
         <v>1.011232972145081</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>1</v>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45299</v>
       </c>
       <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
         <v>0.9646854400634766</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>1</v>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45301</v>
       </c>
       <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
         <v>1.033171892166138</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>1</v>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45302</v>
       </c>
       <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
         <v>1.08892822265625</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <v>1</v>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45304</v>
       </c>
       <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
         <v>0.9670515656471252</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>1</v>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45305</v>
       </c>
       <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
         <v>1.005556106567383</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <v>1</v>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45306</v>
       </c>
       <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
         <v>1.165088772773743</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>1</v>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45309</v>
       </c>
       <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
         <v>1.486118316650391</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <v>2</v>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45310</v>
       </c>
       <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
         <v>1.074236989021301</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>2</v>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45311</v>
       </c>
       <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
         <v>0.9460363388061523</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
-        <v>1</v>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45312</v>
       </c>
       <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
         <v>0.8619154691696167</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
-        <v>1</v>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45313</v>
       </c>
       <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
         <v>1.112403631210327</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
-        <v>1</v>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45314</v>
       </c>
       <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
         <v>1.424167394638062</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>1</v>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45316</v>
       </c>
       <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
         <v>0.9572203159332275</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
-        <v>1</v>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45318</v>
       </c>
       <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
         <v>1.014986395835876</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>1</v>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45321</v>
       </c>
       <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
         <v>1.101829767227173</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
-        <v>1</v>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45322</v>
       </c>
       <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
         <v>1.25979483127594</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
-        <v>2</v>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45324</v>
       </c>
       <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
         <v>1.539082646369934</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>1</v>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45326</v>
       </c>
       <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
         <v>1.677331447601318</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
-        <v>1</v>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45328</v>
       </c>
       <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
         <v>1.251542329788208</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
-        <v>1</v>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45337</v>
       </c>
       <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
         <v>1.698846936225891</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115">
-        <v>1</v>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45338</v>
       </c>
       <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
         <v>1.010831952095032</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
-        <v>1</v>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45340</v>
       </c>
       <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
         <v>1.006508946418762</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117">
-        <v>1</v>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45347</v>
       </c>
       <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
         <v>1.456968307495117</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118">
-        <v>1</v>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45350</v>
       </c>
       <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
         <v>1.798958778381348</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>1</v>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45354</v>
       </c>
       <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
         <v>1.588107824325562</v>
       </c>
     </row>
